--- a/MIRALLES.xlsx
+++ b/MIRALLES.xlsx
@@ -1,22 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
     <t>Activities</t>
   </si>
@@ -41,26 +36,32 @@
     <t>Time End</t>
   </si>
   <si>
-    <t>Desingning Forms</t>
-  </si>
-  <si>
     <t>6pm</t>
   </si>
   <si>
     <t>11pm</t>
   </si>
   <si>
-    <t>Creating Fomrs</t>
-  </si>
-  <si>
     <t>4pm</t>
+  </si>
+  <si>
+    <t>Desingning Forms(Login, register, main menu)</t>
+  </si>
+  <si>
+    <t>Creating Fomrs (Login, register, main menu)</t>
+  </si>
+  <si>
+    <t>5pm</t>
+  </si>
+  <si>
+    <t>Creating and Designing of Forms (Check-In, Check-Out, Reserve a Room)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -89,9 +90,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -152,7 +156,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -187,7 +191,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -364,30 +368,30 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="35.140625" customWidth="1"/>
+    <col min="1" max="1" width="68.5703125" customWidth="1"/>
     <col min="2" max="2" width="23.28515625" customWidth="1"/>
     <col min="3" max="3" width="13.28515625" customWidth="1"/>
     <col min="4" max="4" width="14.42578125" customWidth="1"/>
     <col min="5" max="5" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -404,9 +408,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1">
         <v>43728</v>
@@ -415,15 +419,15 @@
         <v>43729</v>
       </c>
       <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" t="s">
-        <v>7</v>
-      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3" s="1">
         <v>43731</v>
@@ -432,9 +436,26 @@
         <v>43731</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="1">
+        <v>43738</v>
+      </c>
+      <c r="C4" s="2">
+        <v>43738</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
         <v>6</v>
       </c>
     </row>

--- a/MIRALLES.xlsx
+++ b/MIRALLES.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
   <si>
     <t>Activities</t>
   </si>
@@ -55,6 +55,12 @@
   </si>
   <si>
     <t>Creating and Designing of Forms (Check-In, Check-Out, Reserve a Room)</t>
+  </si>
+  <si>
+    <t>Continuing of Chapter 2 (Documentation)</t>
+  </si>
+  <si>
+    <t>12pm</t>
   </si>
 </sst>
 </file>
@@ -368,7 +374,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -376,10 +382,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -459,6 +465,23 @@
         <v>6</v>
       </c>
     </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="1">
+        <v>43740</v>
+      </c>
+      <c r="C5" s="1">
+        <v>43743</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/MIRALLES.xlsx
+++ b/MIRALLES.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
   <si>
     <t>Activities</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>12pm</t>
+  </si>
+  <si>
+    <t>Continuing of Chapter 3  (Documentation)</t>
+  </si>
+  <si>
+    <t>8pm</t>
+  </si>
+  <si>
+    <t>1pm</t>
   </si>
 </sst>
 </file>
@@ -374,7 +383,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -382,10 +391,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -482,6 +491,23 @@
         <v>10</v>
       </c>
     </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="1">
+        <v>43755</v>
+      </c>
+      <c r="C6" s="1">
+        <v>43755</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
